--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Serpine1-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Serpine1-Lrp1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.145195333333334</v>
+        <v>8.167195999999999</v>
       </c>
       <c r="H2">
-        <v>12.435586</v>
+        <v>24.501588</v>
       </c>
       <c r="I2">
-        <v>0.04167134630420959</v>
+        <v>0.0776491163898855</v>
       </c>
       <c r="J2">
-        <v>0.04167134630420959</v>
+        <v>0.07764911638988552</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N2">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O2">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P2">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q2">
-        <v>97.97499818747755</v>
+        <v>15.67208412997466</v>
       </c>
       <c r="R2">
-        <v>881.774983687298</v>
+        <v>141.048757169772</v>
       </c>
       <c r="S2">
-        <v>0.002845254763220851</v>
+        <v>0.000506584323279491</v>
       </c>
       <c r="T2">
-        <v>0.002845254763220851</v>
+        <v>0.0005065843232794911</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.145195333333334</v>
+        <v>8.167195999999999</v>
       </c>
       <c r="H3">
-        <v>12.435586</v>
+        <v>24.501588</v>
       </c>
       <c r="I3">
-        <v>0.04167134630420959</v>
+        <v>0.0776491163898855</v>
       </c>
       <c r="J3">
-        <v>0.04167134630420959</v>
+        <v>0.07764911638988552</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>543.865174</v>
       </c>
       <c r="O3">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P3">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q3">
-        <v>751.4757937424406</v>
+        <v>1480.617824544035</v>
       </c>
       <c r="R3">
-        <v>6763.282143681965</v>
+        <v>13325.56042089631</v>
       </c>
       <c r="S3">
-        <v>0.0218233235125911</v>
+        <v>0.04785947883266018</v>
       </c>
       <c r="T3">
-        <v>0.02182332351259109</v>
+        <v>0.04785947883266019</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.145195333333334</v>
+        <v>8.167195999999999</v>
       </c>
       <c r="H4">
-        <v>12.435586</v>
+        <v>24.501588</v>
       </c>
       <c r="I4">
-        <v>0.04167134630420959</v>
+        <v>0.0776491163898855</v>
       </c>
       <c r="J4">
-        <v>0.04167134630420959</v>
+        <v>0.07764911638988552</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N4">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O4">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P4">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q4">
-        <v>124.9487859770164</v>
+        <v>237.2380332901106</v>
       </c>
       <c r="R4">
-        <v>1124.539073793148</v>
+        <v>2135.142299610996</v>
       </c>
       <c r="S4">
-        <v>0.00362859030402317</v>
+        <v>0.007668480308918706</v>
       </c>
       <c r="T4">
-        <v>0.00362859030402317</v>
+        <v>0.007668480308918708</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.145195333333334</v>
+        <v>8.167195999999999</v>
       </c>
       <c r="H5">
-        <v>12.435586</v>
+        <v>24.501588</v>
       </c>
       <c r="I5">
-        <v>0.04167134630420959</v>
+        <v>0.0776491163898855</v>
       </c>
       <c r="J5">
-        <v>0.04167134630420959</v>
+        <v>0.07764911638988552</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N5">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O5">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P5">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q5">
-        <v>460.5334661917171</v>
+        <v>668.6851324603786</v>
       </c>
       <c r="R5">
-        <v>4144.801195725454</v>
+        <v>6018.166192143407</v>
       </c>
       <c r="S5">
-        <v>0.01337417772437448</v>
+        <v>0.02161457292502713</v>
       </c>
       <c r="T5">
-        <v>0.01337417772437448</v>
+        <v>0.02161457292502713</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>190.082963</v>
       </c>
       <c r="I6">
-        <v>0.6369633869850009</v>
+        <v>0.6024007145055783</v>
       </c>
       <c r="J6">
-        <v>0.6369633869850008</v>
+        <v>0.6024007145055783</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N6">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O6">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P6">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q6">
-        <v>1497.587484449495</v>
+        <v>121.5838005198219</v>
       </c>
       <c r="R6">
-        <v>13478.28736004546</v>
+        <v>1094.254204678397</v>
       </c>
       <c r="S6">
-        <v>0.0434908701433839</v>
+        <v>0.0039300738049434</v>
       </c>
       <c r="T6">
-        <v>0.0434908701433839</v>
+        <v>0.0039300738049434</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>190.082963</v>
       </c>
       <c r="I7">
-        <v>0.6369633869850009</v>
+        <v>0.6024007145055783</v>
       </c>
       <c r="J7">
-        <v>0.6369633869850008</v>
+        <v>0.6024007145055783</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>543.865174</v>
       </c>
       <c r="O7">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P7">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q7">
         <v>11486.61152738117</v>
@@ -883,10 +883,10 @@
         <v>103379.5037464306</v>
       </c>
       <c r="S7">
-        <v>0.333578328820281</v>
+        <v>0.3712931400261824</v>
       </c>
       <c r="T7">
-        <v>0.3335783288202809</v>
+        <v>0.3712931400261824</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>190.082963</v>
       </c>
       <c r="I8">
-        <v>0.6369633869850009</v>
+        <v>0.6024007145055783</v>
       </c>
       <c r="J8">
-        <v>0.6369633869850008</v>
+        <v>0.6024007145055783</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N8">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O8">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P8">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q8">
-        <v>1909.892743435181</v>
+        <v>1840.489208457708</v>
       </c>
       <c r="R8">
-        <v>17189.03469091663</v>
+        <v>16564.40287611937</v>
       </c>
       <c r="S8">
-        <v>0.05546447079388096</v>
+        <v>0.05949195859576217</v>
       </c>
       <c r="T8">
-        <v>0.05546447079388096</v>
+        <v>0.05949195859576218</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>190.082963</v>
       </c>
       <c r="I9">
-        <v>0.6369633869850009</v>
+        <v>0.6024007145055783</v>
       </c>
       <c r="J9">
-        <v>0.6369633869850008</v>
+        <v>0.6024007145055783</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N9">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O9">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P9">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q9">
-        <v>7039.440345986261</v>
+        <v>5187.649522639767</v>
       </c>
       <c r="R9">
-        <v>63354.96311387635</v>
+        <v>46688.84570375791</v>
       </c>
       <c r="S9">
-        <v>0.204429717227455</v>
+        <v>0.1676855420786903</v>
       </c>
       <c r="T9">
-        <v>0.2044297172274549</v>
+        <v>0.1676855420786903</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>25.94386466666667</v>
+        <v>25.97600266666667</v>
       </c>
       <c r="H10">
-        <v>77.831594</v>
+        <v>77.92800800000001</v>
       </c>
       <c r="I10">
-        <v>0.2608117789529694</v>
+        <v>0.2469652564243563</v>
       </c>
       <c r="J10">
-        <v>0.2608117789529694</v>
+        <v>0.2469652564243563</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N10">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O10">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P10">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q10">
-        <v>613.2039359527157</v>
+        <v>49.84551603175022</v>
       </c>
       <c r="R10">
-        <v>5518.835423574442</v>
+        <v>448.609644285752</v>
       </c>
       <c r="S10">
-        <v>0.01780782293311883</v>
+        <v>0.001611206065386406</v>
       </c>
       <c r="T10">
-        <v>0.01780782293311883</v>
+        <v>0.001611206065386406</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>25.94386466666667</v>
+        <v>25.97600266666667</v>
       </c>
       <c r="H11">
-        <v>77.831594</v>
+        <v>77.92800800000001</v>
       </c>
       <c r="I11">
-        <v>0.2608117789529694</v>
+        <v>0.2469652564243563</v>
       </c>
       <c r="J11">
-        <v>0.2608117789529694</v>
+        <v>0.2469652564243563</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>543.865174</v>
       </c>
       <c r="O11">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P11">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q11">
-        <v>4703.321490389707</v>
+        <v>4709.147736710378</v>
       </c>
       <c r="R11">
-        <v>42329.89341350736</v>
+        <v>42382.3296303934</v>
       </c>
       <c r="S11">
-        <v>0.1365873755657871</v>
+        <v>0.1522184541404979</v>
       </c>
       <c r="T11">
-        <v>0.1365873755657871</v>
+        <v>0.1522184541404979</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>25.94386466666667</v>
+        <v>25.97600266666667</v>
       </c>
       <c r="H12">
-        <v>77.831594</v>
+        <v>77.92800800000001</v>
       </c>
       <c r="I12">
-        <v>0.2608117789529694</v>
+        <v>0.2469652564243563</v>
       </c>
       <c r="J12">
-        <v>0.2608117789529694</v>
+        <v>0.2469652564243563</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N12">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O12">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P12">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q12">
-        <v>782.0269331060101</v>
+        <v>754.5424139911263</v>
       </c>
       <c r="R12">
-        <v>7038.242397954091</v>
+        <v>6790.881725920137</v>
       </c>
       <c r="S12">
-        <v>0.02271054756366672</v>
+        <v>0.0243898230131557</v>
       </c>
       <c r="T12">
-        <v>0.02271054756366672</v>
+        <v>0.02438982301315571</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>25.94386466666667</v>
+        <v>25.97600266666667</v>
       </c>
       <c r="H13">
-        <v>77.831594</v>
+        <v>77.92800800000001</v>
       </c>
       <c r="I13">
-        <v>0.2608117789529694</v>
+        <v>0.2469652564243563</v>
       </c>
       <c r="J13">
-        <v>0.2608117789529694</v>
+        <v>0.2469652564243563</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N13">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O13">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P13">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q13">
-        <v>2882.377538464729</v>
+        <v>2126.772368870681</v>
       </c>
       <c r="R13">
-        <v>25941.39784618256</v>
+        <v>19140.95131983613</v>
       </c>
       <c r="S13">
-        <v>0.0837060328903968</v>
+        <v>0.06874577320531623</v>
       </c>
       <c r="T13">
-        <v>0.0837060328903968</v>
+        <v>0.06874577320531625</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.023468333333334</v>
+        <v>7.676611333333334</v>
       </c>
       <c r="H14">
-        <v>18.070405</v>
+        <v>23.029834</v>
       </c>
       <c r="I14">
-        <v>0.06055348775782023</v>
+        <v>0.07298491268017987</v>
       </c>
       <c r="J14">
-        <v>0.06055348775782022</v>
+        <v>0.07298491268017987</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N14">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O14">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P14">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q14">
-        <v>142.3694787782406</v>
+        <v>14.73069810607178</v>
       </c>
       <c r="R14">
-        <v>1281.325309004165</v>
+        <v>132.576282954646</v>
       </c>
       <c r="S14">
-        <v>0.004134498036488179</v>
+        <v>0.0004761549688995267</v>
       </c>
       <c r="T14">
-        <v>0.004134498036488178</v>
+        <v>0.0004761549688995267</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.023468333333334</v>
+        <v>7.676611333333334</v>
       </c>
       <c r="H15">
-        <v>18.070405</v>
+        <v>23.029834</v>
       </c>
       <c r="I15">
-        <v>0.06055348775782023</v>
+        <v>0.07298491268017987</v>
       </c>
       <c r="J15">
-        <v>0.06055348775782022</v>
+        <v>0.07298491268017987</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>543.865174</v>
       </c>
       <c r="O15">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P15">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q15">
-        <v>1091.984884397275</v>
+        <v>1391.680519511235</v>
       </c>
       <c r="R15">
-        <v>9827.86395957547</v>
+        <v>12525.12467560112</v>
       </c>
       <c r="S15">
-        <v>0.03171191886884493</v>
+        <v>0.04498467008924801</v>
       </c>
       <c r="T15">
-        <v>0.03171191886884491</v>
+        <v>0.04498467008924801</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.023468333333334</v>
+        <v>7.676611333333334</v>
       </c>
       <c r="H16">
-        <v>18.070405</v>
+        <v>23.029834</v>
       </c>
       <c r="I16">
-        <v>0.06055348775782023</v>
+        <v>0.07298491268017987</v>
       </c>
       <c r="J16">
-        <v>0.06055348775782022</v>
+        <v>0.07298491268017987</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N16">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O16">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P16">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q16">
-        <v>181.5656428947544</v>
+        <v>222.9876906410198</v>
       </c>
       <c r="R16">
-        <v>1634.09078605279</v>
+        <v>2006.889215769178</v>
       </c>
       <c r="S16">
-        <v>0.005272778972601035</v>
+        <v>0.007207852346005759</v>
       </c>
       <c r="T16">
-        <v>0.005272778972601034</v>
+        <v>0.00720785234600576</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.023468333333334</v>
+        <v>7.676611333333334</v>
       </c>
       <c r="H17">
-        <v>18.070405</v>
+        <v>23.029834</v>
       </c>
       <c r="I17">
-        <v>0.06055348775782023</v>
+        <v>0.07298491268017987</v>
       </c>
       <c r="J17">
-        <v>0.06055348775782022</v>
+        <v>0.07298491268017987</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N17">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O17">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P17">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q17">
-        <v>669.2106226548661</v>
+        <v>628.5187555529271</v>
       </c>
       <c r="R17">
-        <v>6022.895603893795</v>
+        <v>5656.668799976344</v>
       </c>
       <c r="S17">
-        <v>0.01943429187988609</v>
+        <v>0.02031623527602657</v>
       </c>
       <c r="T17">
-        <v>0.01943429187988609</v>
+        <v>0.02031623527602657</v>
       </c>
     </row>
   </sheetData>
